--- a/excel/Jesica M Gwin-19365488435.xlsx
+++ b/excel/Jesica M Gwin-19365488435.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Nama</t>
   </si>
@@ -26,7 +26,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>JesicaMGwin@teleworm.us</t>
+    <t>muchtaragung3@gmail.com</t>
   </si>
   <si>
     <t>No telepon</t>
@@ -38,37 +38,16 @@
     <t>Checked</t>
   </si>
   <si>
-    <t>represses_feelings_beliefs</t>
+    <t>financially_irresponsible</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>prone_to_blame</t>
-  </si>
-  <si>
-    <t>financially_irresponsible</t>
-  </si>
-  <si>
-    <t>self_fulfilling_prophecy</t>
-  </si>
-  <si>
-    <t>collaborative</t>
-  </si>
-  <si>
-    <t>perfectionist</t>
-  </si>
-  <si>
-    <t>spiritual</t>
-  </si>
-  <si>
-    <t>oppressive</t>
-  </si>
-  <si>
-    <t>confident</t>
-  </si>
-  <si>
-    <t>unattached</t>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>cautious</t>
   </si>
 </sst>
 </file>
@@ -407,7 +386,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,62 +447,6 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
         <v>8</v>
       </c>
     </row>
